--- a/biology/Botanique/Dendromètre/Dendromètre.xlsx
+++ b/biology/Botanique/Dendromètre/Dendromètre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dendrom%C3%A8tre</t>
+          <t>Dendromètre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le dendromètre est un instrument de mesure, utilisé en dendrométrie permettant de déterminer la hauteur d'un tronc[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le dendromètre est un instrument de mesure, utilisé en dendrométrie permettant de déterminer la hauteur d'un tronc.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dendrom%C3%A8tre</t>
+          <t>Dendromètre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Aperçu historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Parmi les premiers dendromètres, « on trouve, entre autres, la célèbre croix du bûcheron, le dendromètre de Franck et le dendromètre de Christen, mais ils ont tous été progressivement supplantés puis remplacés par les seconds, au sein desquels se distinguent notamment le Blume-Leiss, le Suunto, le Haga, le relascope de Bitterlich et surtout, aujourd’hui, des dendromètres intégrant les technologies ultrasoniques (Forestor vertex) ou laser (Criterion, Forestor vertex laser, LaserAce, par exemple)[2] ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi les premiers dendromètres, « on trouve, entre autres, la célèbre croix du bûcheron, le dendromètre de Franck et le dendromètre de Christen, mais ils ont tous été progressivement supplantés puis remplacés par les seconds, au sein desquels se distinguent notamment le Blume-Leiss, le Suunto, le Haga, le relascope de Bitterlich et surtout, aujourd’hui, des dendromètres intégrant les technologies ultrasoniques (Forestor vertex) ou laser (Criterion, Forestor vertex laser, LaserAce, par exemple) ».
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dendrom%C3%A8tre</t>
+          <t>Dendromètre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Fonctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est associé au compas forestier qui permet de déterminer la diamètre d'un tronc, pour estimer le volume des arbres sur pied et, par extrapolation statistique, le volume de bois d'une parcelle ou d'une forêt[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est associé au compas forestier qui permet de déterminer la diamètre d'un tronc, pour estimer le volume des arbres sur pied et, par extrapolation statistique, le volume de bois d'une parcelle ou d'une forêt.
 </t>
         </is>
       </c>
